--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>SET</t>
+  </si>
   <si>
     <t>LS</t>
   </si>
@@ -25,82 +28,112 @@
     <t>VA</t>
   </si>
   <si>
-    <t>LS2</t>
-  </si>
-  <si>
-    <t>DCA2</t>
-  </si>
-  <si>
-    <t>VA2</t>
-  </si>
-  <si>
     <t>Iter</t>
   </si>
   <si>
     <t>Avg</t>
   </si>
   <si>
-    <t>17.44%</t>
-  </si>
-  <si>
-    <t>5.98%</t>
-  </si>
-  <si>
-    <t>3.58%</t>
-  </si>
-  <si>
-    <t>9.00%</t>
-  </si>
-  <si>
-    <t>15.38%</t>
-  </si>
-  <si>
-    <t>8.08%</t>
-  </si>
-  <si>
-    <t>2.59%</t>
-  </si>
-  <si>
-    <t>8.68%</t>
-  </si>
-  <si>
-    <t>15.75%</t>
-  </si>
-  <si>
-    <t>8.89%</t>
-  </si>
-  <si>
-    <t>3.15%</t>
-  </si>
-  <si>
-    <t>9.26%</t>
-  </si>
-  <si>
-    <t>16.12%</t>
-  </si>
-  <si>
-    <t>5.34%</t>
-  </si>
-  <si>
-    <t>2.12%</t>
-  </si>
-  <si>
-    <t>12.21%</t>
-  </si>
-  <si>
-    <t>7.13%</t>
-  </si>
-  <si>
-    <t>1.81%</t>
-  </si>
-  <si>
-    <t>12.67%</t>
-  </si>
-  <si>
-    <t>7.96%</t>
-  </si>
-  <si>
-    <t>2.34%</t>
+    <t>1967.07</t>
+  </si>
+  <si>
+    <t>18.74%</t>
+  </si>
+  <si>
+    <t>10.57%</t>
+  </si>
+  <si>
+    <t>23.35%</t>
+  </si>
+  <si>
+    <t>-0.95%</t>
+  </si>
+  <si>
+    <t>22.89%</t>
+  </si>
+  <si>
+    <t>20.56%</t>
+  </si>
+  <si>
+    <t>16.31%</t>
+  </si>
+  <si>
+    <t>4.64%</t>
+  </si>
+  <si>
+    <t>6.49%</t>
+  </si>
+  <si>
+    <t>15.94%</t>
+  </si>
+  <si>
+    <t>13.85%</t>
+  </si>
+  <si>
+    <t>21.05%</t>
+  </si>
+  <si>
+    <t>6.61%</t>
+  </si>
+  <si>
+    <t>29.09%</t>
+  </si>
+  <si>
+    <t>-2.12%</t>
+  </si>
+  <si>
+    <t>27.31%</t>
+  </si>
+  <si>
+    <t>22.96%</t>
+  </si>
+  <si>
+    <t>20.42%</t>
+  </si>
+  <si>
+    <t>-1.72%</t>
+  </si>
+  <si>
+    <t>10.79%</t>
+  </si>
+  <si>
+    <t>17.11%</t>
+  </si>
+  <si>
+    <t>15.15%</t>
+  </si>
+  <si>
+    <t>21.75%</t>
+  </si>
+  <si>
+    <t>7.41%</t>
+  </si>
+  <si>
+    <t>29.29%</t>
+  </si>
+  <si>
+    <t>-1.50%</t>
+  </si>
+  <si>
+    <t>27.69%</t>
+  </si>
+  <si>
+    <t>23.59%</t>
+  </si>
+  <si>
+    <t>20.79%</t>
+  </si>
+  <si>
+    <t>-0.92%</t>
+  </si>
+  <si>
+    <t>11.61%</t>
+  </si>
+  <si>
+    <t>17.27%</t>
+  </si>
+  <si>
+    <t>15.70%</t>
   </si>
 </sst>
 </file>
@@ -458,15 +491,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -480,94 +513,192 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="B2">
+        <v>2340.756740483115</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="B3">
+        <v>1063.042907295148</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>3669.916427151185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>437.8075257035019</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2536.470222078155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3181.880820522456</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2244.366063130047</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>759.0557050806224</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1081.763145038037</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2355.67249627675</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
+      <c r="E12" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,9 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>SET</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="453">
+  <si>
+    <t>SET_Final</t>
+  </si>
+  <si>
+    <t>SET_Mean</t>
+  </si>
+  <si>
+    <t>SET_Std</t>
+  </si>
+  <si>
+    <t>SET_Skew</t>
+  </si>
+  <si>
+    <t>SET_Kurt</t>
   </si>
   <si>
     <t>LS</t>
@@ -34,106 +46,1333 @@
     <t>Avg</t>
   </si>
   <si>
-    <t>1967.07</t>
-  </si>
-  <si>
-    <t>18.74%</t>
-  </si>
-  <si>
-    <t>10.57%</t>
-  </si>
-  <si>
-    <t>23.35%</t>
-  </si>
-  <si>
-    <t>-0.95%</t>
-  </si>
-  <si>
-    <t>22.89%</t>
-  </si>
-  <si>
-    <t>20.56%</t>
+    <t>1650.17</t>
+  </si>
+  <si>
+    <t>2.67%</t>
+  </si>
+  <si>
+    <t>8.66%</t>
+  </si>
+  <si>
+    <t>24.56%</t>
+  </si>
+  <si>
+    <t>15.64%</t>
+  </si>
+  <si>
+    <t>10.62%</t>
+  </si>
+  <si>
+    <t>17.32%</t>
+  </si>
+  <si>
+    <t>7.28%</t>
+  </si>
+  <si>
+    <t>2.20%</t>
+  </si>
+  <si>
+    <t>13.05%</t>
+  </si>
+  <si>
+    <t>17.87%</t>
+  </si>
+  <si>
+    <t>13.01%</t>
+  </si>
+  <si>
+    <t>23.07%</t>
+  </si>
+  <si>
+    <t>11.78%</t>
+  </si>
+  <si>
+    <t>9.61%</t>
+  </si>
+  <si>
+    <t>14.84%</t>
+  </si>
+  <si>
+    <t>11.61%</t>
+  </si>
+  <si>
+    <t>19.26%</t>
+  </si>
+  <si>
+    <t>23.44%</t>
+  </si>
+  <si>
+    <t>14.81%</t>
+  </si>
+  <si>
+    <t>14.50%</t>
+  </si>
+  <si>
+    <t>5.55%</t>
+  </si>
+  <si>
+    <t>-8.94%</t>
+  </si>
+  <si>
+    <t>0.40%</t>
+  </si>
+  <si>
+    <t>13.43%</t>
+  </si>
+  <si>
+    <t>8.96%</t>
+  </si>
+  <si>
+    <t>14.46%</t>
+  </si>
+  <si>
+    <t>20.19%</t>
+  </si>
+  <si>
+    <t>12.50%</t>
+  </si>
+  <si>
+    <t>10.55%</t>
+  </si>
+  <si>
+    <t>14.61%</t>
+  </si>
+  <si>
+    <t>15.67%</t>
+  </si>
+  <si>
+    <t>11.15%</t>
+  </si>
+  <si>
+    <t>14.45%</t>
+  </si>
+  <si>
+    <t>10.72%</t>
+  </si>
+  <si>
+    <t>17.21%</t>
+  </si>
+  <si>
+    <t>12.67%</t>
+  </si>
+  <si>
+    <t>18.52%</t>
+  </si>
+  <si>
+    <t>10.04%</t>
+  </si>
+  <si>
+    <t>12.69%</t>
+  </si>
+  <si>
+    <t>0.01%</t>
+  </si>
+  <si>
+    <t>9.39%</t>
+  </si>
+  <si>
+    <t>6.57%</t>
+  </si>
+  <si>
+    <t>8.15%</t>
+  </si>
+  <si>
+    <t>18.10%</t>
+  </si>
+  <si>
+    <t>18.63%</t>
+  </si>
+  <si>
+    <t>12.59%</t>
+  </si>
+  <si>
+    <t>16.39%</t>
+  </si>
+  <si>
+    <t>6.62%</t>
+  </si>
+  <si>
+    <t>13.75%</t>
+  </si>
+  <si>
+    <t>6.63%</t>
+  </si>
+  <si>
+    <t>19.63%</t>
+  </si>
+  <si>
+    <t>5.14%</t>
+  </si>
+  <si>
+    <t>9.09%</t>
+  </si>
+  <si>
+    <t>15.09%</t>
+  </si>
+  <si>
+    <t>13.17%</t>
+  </si>
+  <si>
+    <t>16.75%</t>
+  </si>
+  <si>
+    <t>19.47%</t>
+  </si>
+  <si>
+    <t>11.44%</t>
+  </si>
+  <si>
+    <t>13.52%</t>
+  </si>
+  <si>
+    <t>7.82%</t>
+  </si>
+  <si>
+    <t>21.20%</t>
+  </si>
+  <si>
+    <t>13.00%</t>
+  </si>
+  <si>
+    <t>16.73%</t>
+  </si>
+  <si>
+    <t>20.39%</t>
+  </si>
+  <si>
+    <t>11.24%</t>
+  </si>
+  <si>
+    <t>11.89%</t>
+  </si>
+  <si>
+    <t>13.83%</t>
+  </si>
+  <si>
+    <t>13.66%</t>
+  </si>
+  <si>
+    <t>15.25%</t>
+  </si>
+  <si>
+    <t>20.23%</t>
+  </si>
+  <si>
+    <t>13.79%</t>
+  </si>
+  <si>
+    <t>11.85%</t>
+  </si>
+  <si>
+    <t>12.11%</t>
+  </si>
+  <si>
+    <t>19.30%</t>
+  </si>
+  <si>
+    <t>21.29%</t>
+  </si>
+  <si>
+    <t>15.99%</t>
+  </si>
+  <si>
+    <t>12.36%</t>
+  </si>
+  <si>
+    <t>16.33%</t>
+  </si>
+  <si>
+    <t>14.28%</t>
+  </si>
+  <si>
+    <t>9.76%</t>
+  </si>
+  <si>
+    <t>6.13%</t>
+  </si>
+  <si>
+    <t>12.61%</t>
+  </si>
+  <si>
+    <t>7.78%</t>
+  </si>
+  <si>
+    <t>12.29%</t>
+  </si>
+  <si>
+    <t>17.12%</t>
+  </si>
+  <si>
+    <t>15.49%</t>
+  </si>
+  <si>
+    <t>6.66%</t>
+  </si>
+  <si>
+    <t>14.85%</t>
+  </si>
+  <si>
+    <t>13.42%</t>
+  </si>
+  <si>
+    <t>11.95%</t>
+  </si>
+  <si>
+    <t>10.54%</t>
+  </si>
+  <si>
+    <t>21.63%</t>
+  </si>
+  <si>
+    <t>15.84%</t>
+  </si>
+  <si>
+    <t>12.99%</t>
+  </si>
+  <si>
+    <t>17.23%</t>
+  </si>
+  <si>
+    <t>15.89%</t>
   </si>
   <si>
     <t>16.31%</t>
   </si>
   <si>
-    <t>4.64%</t>
-  </si>
-  <si>
-    <t>6.49%</t>
-  </si>
-  <si>
-    <t>15.94%</t>
-  </si>
-  <si>
-    <t>13.85%</t>
-  </si>
-  <si>
-    <t>21.05%</t>
+    <t>16.00%</t>
+  </si>
+  <si>
+    <t>15.92%</t>
+  </si>
+  <si>
+    <t>17.61%</t>
+  </si>
+  <si>
+    <t>14.55%</t>
+  </si>
+  <si>
+    <t>16.13%</t>
+  </si>
+  <si>
+    <t>16.50%</t>
+  </si>
+  <si>
+    <t>15.82%</t>
+  </si>
+  <si>
+    <t>16.68%</t>
+  </si>
+  <si>
+    <t>15.27%</t>
+  </si>
+  <si>
+    <t>14.39%</t>
+  </si>
+  <si>
+    <t>17.20%</t>
+  </si>
+  <si>
+    <t>15.15%</t>
+  </si>
+  <si>
+    <t>15.72%</t>
+  </si>
+  <si>
+    <t>15.26%</t>
+  </si>
+  <si>
+    <t>15.20%</t>
+  </si>
+  <si>
+    <t>16.18%</t>
+  </si>
+  <si>
+    <t>15.97%</t>
+  </si>
+  <si>
+    <t>16.96%</t>
+  </si>
+  <si>
+    <t>18.37%</t>
+  </si>
+  <si>
+    <t>18.28%</t>
+  </si>
+  <si>
+    <t>14.43%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>15.80%</t>
+  </si>
+  <si>
+    <t>16.07%</t>
+  </si>
+  <si>
+    <t>14.47%</t>
+  </si>
+  <si>
+    <t>16.55%</t>
+  </si>
+  <si>
+    <t>16.46%</t>
+  </si>
+  <si>
+    <t>16.37%</t>
+  </si>
+  <si>
+    <t>16.24%</t>
+  </si>
+  <si>
+    <t>16.47%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>13.95%</t>
+  </si>
+  <si>
+    <t>16.74%</t>
+  </si>
+  <si>
+    <t>15.28%</t>
+  </si>
+  <si>
+    <t>13.70%</t>
+  </si>
+  <si>
+    <t>14.80%</t>
+  </si>
+  <si>
+    <t>14.38%</t>
+  </si>
+  <si>
+    <t>16.14%</t>
+  </si>
+  <si>
+    <t>12.30%</t>
+  </si>
+  <si>
+    <t>16.29%</t>
+  </si>
+  <si>
+    <t>17.55%</t>
+  </si>
+  <si>
+    <t>16.12%</t>
+  </si>
+  <si>
+    <t>14.40%</t>
+  </si>
+  <si>
+    <t>14.56%</t>
+  </si>
+  <si>
+    <t>15.51%</t>
+  </si>
+  <si>
+    <t>15.71%</t>
+  </si>
+  <si>
+    <t>14.65%</t>
+  </si>
+  <si>
+    <t>13.60%</t>
+  </si>
+  <si>
+    <t>15.91%</t>
+  </si>
+  <si>
+    <t>14.64%</t>
+  </si>
+  <si>
+    <t>16.78%</t>
+  </si>
+  <si>
+    <t>17.47%</t>
+  </si>
+  <si>
+    <t>17.28%</t>
+  </si>
+  <si>
+    <t>16.44%</t>
+  </si>
+  <si>
+    <t>15.04%</t>
+  </si>
+  <si>
+    <t>16.22%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>15.30%</t>
+  </si>
+  <si>
+    <t>17.86%</t>
+  </si>
+  <si>
+    <t>14.41%</t>
+  </si>
+  <si>
+    <t>15.61%</t>
+  </si>
+  <si>
+    <t>14.90%</t>
+  </si>
+  <si>
+    <t>16.27%</t>
+  </si>
+  <si>
+    <t>14.66%</t>
+  </si>
+  <si>
+    <t>15.01%</t>
+  </si>
+  <si>
+    <t>15.32%</t>
+  </si>
+  <si>
+    <t>16.92%</t>
+  </si>
+  <si>
+    <t>15.16%</t>
+  </si>
+  <si>
+    <t>17.59%</t>
+  </si>
+  <si>
+    <t>16.43%</t>
+  </si>
+  <si>
+    <t>12.70%</t>
+  </si>
+  <si>
+    <t>17.41%</t>
+  </si>
+  <si>
+    <t>13.64%</t>
+  </si>
+  <si>
+    <t>14.70%</t>
+  </si>
+  <si>
+    <t>16.69%</t>
+  </si>
+  <si>
+    <t>16.61%</t>
+  </si>
+  <si>
+    <t>14.26%</t>
+  </si>
+  <si>
+    <t>19.18%</t>
+  </si>
+  <si>
+    <t>15.18%</t>
+  </si>
+  <si>
+    <t>14.62%</t>
+  </si>
+  <si>
+    <t>15.22%</t>
+  </si>
+  <si>
+    <t>15.81%</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>-0.11%</t>
+  </si>
+  <si>
+    <t>6.59%</t>
+  </si>
+  <si>
+    <t>27.43%</t>
+  </si>
+  <si>
+    <t>14.79%</t>
+  </si>
+  <si>
+    <t>10.42%</t>
+  </si>
+  <si>
+    <t>16.32%</t>
+  </si>
+  <si>
+    <t>6.38%</t>
+  </si>
+  <si>
+    <t>1.27%</t>
+  </si>
+  <si>
+    <t>13.51%</t>
+  </si>
+  <si>
+    <t>21.69%</t>
+  </si>
+  <si>
+    <t>10.66%</t>
+  </si>
+  <si>
+    <t>0.96%</t>
+  </si>
+  <si>
+    <t>23.70%</t>
+  </si>
+  <si>
+    <t>8.47%</t>
+  </si>
+  <si>
+    <t>13.90%</t>
+  </si>
+  <si>
+    <t>8.76%</t>
+  </si>
+  <si>
+    <t>20.75%</t>
+  </si>
+  <si>
+    <t>23.22%</t>
+  </si>
+  <si>
+    <t>15.23%</t>
+  </si>
+  <si>
+    <t>5.61%</t>
+  </si>
+  <si>
+    <t>-9.39%</t>
+  </si>
+  <si>
+    <t>1.25%</t>
+  </si>
+  <si>
+    <t>13.77%</t>
+  </si>
+  <si>
+    <t>8.13%</t>
+  </si>
+  <si>
+    <t>15.33%</t>
+  </si>
+  <si>
+    <t>21.44%</t>
+  </si>
+  <si>
+    <t>5.02%</t>
+  </si>
+  <si>
+    <t>13.88%</t>
+  </si>
+  <si>
+    <t>11.43%</t>
+  </si>
+  <si>
+    <t>17.16%</t>
+  </si>
+  <si>
+    <t>8.82%</t>
+  </si>
+  <si>
+    <t>11.96%</t>
+  </si>
+  <si>
+    <t>7.46%</t>
+  </si>
+  <si>
+    <t>17.42%</t>
+  </si>
+  <si>
+    <t>17.36%</t>
+  </si>
+  <si>
+    <t>14.44%</t>
+  </si>
+  <si>
+    <t>2.22%</t>
+  </si>
+  <si>
+    <t>8.39%</t>
+  </si>
+  <si>
+    <t>3.00%</t>
+  </si>
+  <si>
+    <t>7.23%</t>
+  </si>
+  <si>
+    <t>20.62%</t>
+  </si>
+  <si>
+    <t>18.66%</t>
+  </si>
+  <si>
+    <t>11.37%</t>
+  </si>
+  <si>
+    <t>9.02%</t>
+  </si>
+  <si>
+    <t>13.86%</t>
+  </si>
+  <si>
+    <t>7.94%</t>
+  </si>
+  <si>
+    <t>20.76%</t>
+  </si>
+  <si>
+    <t>3.57%</t>
+  </si>
+  <si>
+    <t>8.06%</t>
+  </si>
+  <si>
+    <t>13.13%</t>
+  </si>
+  <si>
+    <t>18.07%</t>
+  </si>
+  <si>
+    <t>18.05%</t>
+  </si>
+  <si>
+    <t>11.99%</t>
+  </si>
+  <si>
+    <t>8.10%</t>
+  </si>
+  <si>
+    <t>12.46%</t>
+  </si>
+  <si>
+    <t>11.23%</t>
+  </si>
+  <si>
+    <t>18.20%</t>
+  </si>
+  <si>
+    <t>25.10%</t>
+  </si>
+  <si>
+    <t>10.25%</t>
+  </si>
+  <si>
+    <t>7.66%</t>
+  </si>
+  <si>
+    <t>13.06%</t>
+  </si>
+  <si>
+    <t>10.97%</t>
+  </si>
+  <si>
+    <t>14.77%</t>
+  </si>
+  <si>
+    <t>24.64%</t>
+  </si>
+  <si>
+    <t>9.91%</t>
+  </si>
+  <si>
+    <t>12.01%</t>
+  </si>
+  <si>
+    <t>19.86%</t>
+  </si>
+  <si>
+    <t>23.79%</t>
+  </si>
+  <si>
+    <t>14.89%</t>
+  </si>
+  <si>
+    <t>15.31%</t>
+  </si>
+  <si>
+    <t>13.71%</t>
+  </si>
+  <si>
+    <t>5.84%</t>
+  </si>
+  <si>
+    <t>4.81%</t>
+  </si>
+  <si>
+    <t>15.07%</t>
+  </si>
+  <si>
+    <t>13.22%</t>
+  </si>
+  <si>
+    <t>17.07%</t>
+  </si>
+  <si>
+    <t>4.01%</t>
+  </si>
+  <si>
+    <t>10.86%</t>
+  </si>
+  <si>
+    <t>10.05%</t>
+  </si>
+  <si>
+    <t>24.33%</t>
+  </si>
+  <si>
+    <t>16.17%</t>
+  </si>
+  <si>
+    <t>7.93%</t>
+  </si>
+  <si>
+    <t>21.48%</t>
+  </si>
+  <si>
+    <t>13.80%</t>
+  </si>
+  <si>
+    <t>12.54%</t>
+  </si>
+  <si>
+    <t>0.87%</t>
+  </si>
+  <si>
+    <t>8.88%</t>
+  </si>
+  <si>
+    <t>32.96%</t>
+  </si>
+  <si>
+    <t>7.62%</t>
+  </si>
+  <si>
+    <t>-2.98%</t>
+  </si>
+  <si>
+    <t>21.12%</t>
+  </si>
+  <si>
+    <t>18.41%</t>
+  </si>
+  <si>
+    <t>16.52%</t>
+  </si>
+  <si>
+    <t>-2.22%</t>
+  </si>
+  <si>
+    <t>25.18%</t>
+  </si>
+  <si>
+    <t>17.05%</t>
+  </si>
+  <si>
+    <t>9.14%</t>
   </si>
   <si>
     <t>6.61%</t>
   </si>
   <si>
-    <t>29.09%</t>
-  </si>
-  <si>
-    <t>-2.12%</t>
-  </si>
-  <si>
-    <t>27.31%</t>
-  </si>
-  <si>
-    <t>22.96%</t>
-  </si>
-  <si>
-    <t>20.42%</t>
-  </si>
-  <si>
-    <t>-1.72%</t>
-  </si>
-  <si>
-    <t>10.79%</t>
-  </si>
-  <si>
-    <t>17.11%</t>
-  </si>
-  <si>
-    <t>15.15%</t>
-  </si>
-  <si>
-    <t>21.75%</t>
-  </si>
-  <si>
-    <t>7.41%</t>
-  </si>
-  <si>
-    <t>29.29%</t>
-  </si>
-  <si>
-    <t>-1.50%</t>
-  </si>
-  <si>
-    <t>27.69%</t>
-  </si>
-  <si>
-    <t>23.59%</t>
-  </si>
-  <si>
-    <t>20.79%</t>
-  </si>
-  <si>
-    <t>-0.92%</t>
-  </si>
-  <si>
-    <t>11.61%</t>
-  </si>
-  <si>
-    <t>17.27%</t>
+    <t>21.18%</t>
+  </si>
+  <si>
+    <t>19.41%</t>
+  </si>
+  <si>
+    <t>9.54%</t>
+  </si>
+  <si>
+    <t>19.76%</t>
+  </si>
+  <si>
+    <t>4.11%</t>
+  </si>
+  <si>
+    <t>-13.13%</t>
+  </si>
+  <si>
+    <t>1.15%</t>
+  </si>
+  <si>
+    <t>14.00%</t>
+  </si>
+  <si>
+    <t>9.77%</t>
+  </si>
+  <si>
+    <t>21.95%</t>
+  </si>
+  <si>
+    <t>23.17%</t>
+  </si>
+  <si>
+    <t>6.07%</t>
+  </si>
+  <si>
+    <t>5.42%</t>
+  </si>
+  <si>
+    <t>6.76%</t>
+  </si>
+  <si>
+    <t>10.70%</t>
+  </si>
+  <si>
+    <t>14.30%</t>
+  </si>
+  <si>
+    <t>3.10%</t>
+  </si>
+  <si>
+    <t>2.58%</t>
+  </si>
+  <si>
+    <t>18.93%</t>
+  </si>
+  <si>
+    <t>7.01%</t>
+  </si>
+  <si>
+    <t>14.42%</t>
+  </si>
+  <si>
+    <t>13.92%</t>
+  </si>
+  <si>
+    <t>17.03%</t>
+  </si>
+  <si>
+    <t>-1.37%</t>
+  </si>
+  <si>
+    <t>-1.60%</t>
+  </si>
+  <si>
+    <t>4.16%</t>
+  </si>
+  <si>
+    <t>19.56%</t>
+  </si>
+  <si>
+    <t>8.70%</t>
+  </si>
+  <si>
+    <t>7.75%</t>
+  </si>
+  <si>
+    <t>13.73%</t>
+  </si>
+  <si>
+    <t>24.91%</t>
+  </si>
+  <si>
+    <t>1.81%</t>
+  </si>
+  <si>
+    <t>2.99%</t>
+  </si>
+  <si>
+    <t>14.36%</t>
+  </si>
+  <si>
+    <t>15.38%</t>
+  </si>
+  <si>
+    <t>8.31%</t>
+  </si>
+  <si>
+    <t>12.26%</t>
+  </si>
+  <si>
+    <t>14.17%</t>
+  </si>
+  <si>
+    <t>22.64%</t>
+  </si>
+  <si>
+    <t>6.67%</t>
+  </si>
+  <si>
+    <t>7.07%</t>
+  </si>
+  <si>
+    <t>18.73%</t>
+  </si>
+  <si>
+    <t>23.84%</t>
+  </si>
+  <si>
+    <t>9.62%</t>
+  </si>
+  <si>
+    <t>16.66%</t>
+  </si>
+  <si>
+    <t>11.94%</t>
+  </si>
+  <si>
+    <t>14.04%</t>
+  </si>
+  <si>
+    <t>24.43%</t>
+  </si>
+  <si>
+    <t>15.74%</t>
+  </si>
+  <si>
+    <t>12.85%</t>
+  </si>
+  <si>
+    <t>19.20%</t>
+  </si>
+  <si>
+    <t>15.36%</t>
+  </si>
+  <si>
+    <t>26.21%</t>
+  </si>
+  <si>
+    <t>24.90%</t>
+  </si>
+  <si>
+    <t>12.94%</t>
+  </si>
+  <si>
+    <t>19.68%</t>
+  </si>
+  <si>
+    <t>13.76%</t>
+  </si>
+  <si>
+    <t>7.51%</t>
+  </si>
+  <si>
+    <t>5.76%</t>
+  </si>
+  <si>
+    <t>11.75%</t>
+  </si>
+  <si>
+    <t>9.66%</t>
+  </si>
+  <si>
+    <t>19.05%</t>
+  </si>
+  <si>
+    <t>21.43%</t>
+  </si>
+  <si>
+    <t>22.59%</t>
+  </si>
+  <si>
+    <t>8.84%</t>
+  </si>
+  <si>
+    <t>12.18%</t>
+  </si>
+  <si>
+    <t>6.09%</t>
+  </si>
+  <si>
+    <t>13.45%</t>
+  </si>
+  <si>
+    <t>2.91%</t>
+  </si>
+  <si>
+    <t>22.93%</t>
+  </si>
+  <si>
+    <t>12.66%</t>
+  </si>
+  <si>
+    <t>11.25%</t>
+  </si>
+  <si>
+    <t>20.97%</t>
+  </si>
+  <si>
+    <t>11.39%</t>
+  </si>
+  <si>
+    <t>12.82%</t>
+  </si>
+  <si>
+    <t>1.94%</t>
+  </si>
+  <si>
+    <t>9.79%</t>
+  </si>
+  <si>
+    <t>33.18%</t>
+  </si>
+  <si>
+    <t>11.55%</t>
+  </si>
+  <si>
+    <t>18.03%</t>
+  </si>
+  <si>
+    <t>8.42%</t>
+  </si>
+  <si>
+    <t>-2.42%</t>
+  </si>
+  <si>
+    <t>21.51%</t>
+  </si>
+  <si>
+    <t>19.46%</t>
+  </si>
+  <si>
+    <t>-1.63%</t>
+  </si>
+  <si>
+    <t>26.00%</t>
+  </si>
+  <si>
+    <t>17.90%</t>
+  </si>
+  <si>
+    <t>9.71%</t>
+  </si>
+  <si>
+    <t>15.24%</t>
+  </si>
+  <si>
+    <t>7.90%</t>
+  </si>
+  <si>
+    <t>22.10%</t>
+  </si>
+  <si>
+    <t>10.29%</t>
+  </si>
+  <si>
+    <t>20.26%</t>
+  </si>
+  <si>
+    <t>4.71%</t>
+  </si>
+  <si>
+    <t>-12.46%</t>
+  </si>
+  <si>
+    <t>2.09%</t>
+  </si>
+  <si>
+    <t>11.12%</t>
+  </si>
+  <si>
+    <t>22.32%</t>
+  </si>
+  <si>
+    <t>24.07%</t>
+  </si>
+  <si>
+    <t>6.75%</t>
+  </si>
+  <si>
+    <t>6.25%</t>
+  </si>
+  <si>
+    <t>7.56%</t>
+  </si>
+  <si>
+    <t>11.54%</t>
+  </si>
+  <si>
+    <t>15.63%</t>
+  </si>
+  <si>
+    <t>4.31%</t>
+  </si>
+  <si>
+    <t>15.46%</t>
+  </si>
+  <si>
+    <t>3.03%</t>
+  </si>
+  <si>
+    <t>19.54%</t>
+  </si>
+  <si>
+    <t>7.43%</t>
+  </si>
+  <si>
+    <t>14.69%</t>
+  </si>
+  <si>
+    <t>17.67%</t>
+  </si>
+  <si>
+    <t>-0.89%</t>
+  </si>
+  <si>
+    <t>7.65%</t>
+  </si>
+  <si>
+    <t>-1.28%</t>
+  </si>
+  <si>
+    <t>4.75%</t>
+  </si>
+  <si>
+    <t>20.49%</t>
+  </si>
+  <si>
+    <t>18.51%</t>
+  </si>
+  <si>
+    <t>17.54%</t>
+  </si>
+  <si>
+    <t>18.92%</t>
+  </si>
+  <si>
+    <t>9.31%</t>
+  </si>
+  <si>
+    <t>8.98%</t>
+  </si>
+  <si>
+    <t>14.34%</t>
+  </si>
+  <si>
+    <t>24.98%</t>
+  </si>
+  <si>
+    <t>2.48%</t>
+  </si>
+  <si>
+    <t>3.82%</t>
+  </si>
+  <si>
+    <t>14.96%</t>
+  </si>
+  <si>
+    <t>16.23%</t>
   </si>
   <si>
     <t>15.70%</t>
+  </si>
+  <si>
+    <t>15.05%</t>
+  </si>
+  <si>
+    <t>9.27%</t>
+  </si>
+  <si>
+    <t>13.30%</t>
+  </si>
+  <si>
+    <t>23.90%</t>
+  </si>
+  <si>
+    <t>7.44%</t>
+  </si>
+  <si>
+    <t>7.81%</t>
+  </si>
+  <si>
+    <t>20.08%</t>
+  </si>
+  <si>
+    <t>24.71%</t>
+  </si>
+  <si>
+    <t>13.87%</t>
+  </si>
+  <si>
+    <t>10.10%</t>
+  </si>
+  <si>
+    <t>16.95%</t>
+  </si>
+  <si>
+    <t>13.12%</t>
+  </si>
+  <si>
+    <t>14.59%</t>
+  </si>
+  <si>
+    <t>25.09%</t>
+  </si>
+  <si>
+    <t>16.21%</t>
+  </si>
+  <si>
+    <t>13.57%</t>
+  </si>
+  <si>
+    <t>19.98%</t>
+  </si>
+  <si>
+    <t>15.86%</t>
+  </si>
+  <si>
+    <t>26.39%</t>
+  </si>
+  <si>
+    <t>25.78%</t>
+  </si>
+  <si>
+    <t>14.93%</t>
+  </si>
+  <si>
+    <t>19.72%</t>
+  </si>
+  <si>
+    <t>14.86%</t>
+  </si>
+  <si>
+    <t>8.14%</t>
+  </si>
+  <si>
+    <t>6.72%</t>
+  </si>
+  <si>
+    <t>10.17%</t>
+  </si>
+  <si>
+    <t>22.05%</t>
+  </si>
+  <si>
+    <t>23.10%</t>
+  </si>
+  <si>
+    <t>9.51%</t>
+  </si>
+  <si>
+    <t>6.95%</t>
+  </si>
+  <si>
+    <t>3.96%</t>
+  </si>
+  <si>
+    <t>23.82%</t>
+  </si>
+  <si>
+    <t>14.12%</t>
+  </si>
+  <si>
+    <t>12.03%</t>
+  </si>
+  <si>
+    <t>12.13%</t>
   </si>
 </sst>
 </file>
@@ -491,15 +1730,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -513,192 +1752,2946 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2340.756740483115</v>
+        <v>506.883573307521</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>105</v>
+      </c>
+      <c r="E2">
+        <v>-0.02553072033966638</v>
+      </c>
+      <c r="F2">
+        <v>0.8656668336205078</v>
+      </c>
+      <c r="G2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1063.042907295148</v>
+        <v>940.5389864886738</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>106</v>
+      </c>
+      <c r="E3">
+        <v>-0.490808682067048</v>
+      </c>
+      <c r="F3">
+        <v>1.108145023936831</v>
+      </c>
+      <c r="G3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3669.916427151185</v>
+        <v>4508.316247634576</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="E4">
+        <v>0.08337751329149429</v>
+      </c>
+      <c r="F4">
+        <v>0.07363509966768644</v>
+      </c>
+      <c r="G4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>437.8075257035019</v>
+        <v>1883.409195259054</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>108</v>
+      </c>
+      <c r="E5">
+        <v>0.412174964571998</v>
+      </c>
+      <c r="F5">
+        <v>0.5172168850877781</v>
+      </c>
+      <c r="G5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2536.470222078155</v>
+        <v>1143.977878300838</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>109</v>
+      </c>
+      <c r="E6">
+        <v>-0.1721427149517536</v>
+      </c>
+      <c r="F6">
+        <v>0.8246690929937532</v>
+      </c>
+      <c r="G6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3181.880820522456</v>
+        <v>2175.415905673673</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>-0.1014339082467411</v>
+      </c>
+      <c r="F7">
+        <v>1.223657356341985</v>
+      </c>
+      <c r="G7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2244.366063130047</v>
+        <v>799.5672566905082</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>110</v>
+      </c>
+      <c r="E8">
+        <v>0.3485284015497352</v>
+      </c>
+      <c r="F8">
+        <v>0.006510896069607863</v>
+      </c>
+      <c r="G8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" t="s">
+        <v>280</v>
+      </c>
+      <c r="I8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>759.0557050806224</v>
+        <v>505.238502681637</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>111</v>
+      </c>
+      <c r="E9">
+        <v>0.2215995352076449</v>
+      </c>
+      <c r="F9">
+        <v>0.03036562095737905</v>
+      </c>
+      <c r="G9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H9" t="s">
+        <v>281</v>
+      </c>
+      <c r="I9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1081.763145038037</v>
+        <v>1450.250925526073</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>112</v>
+      </c>
+      <c r="E10">
+        <v>-0.2048833612534611</v>
+      </c>
+      <c r="F10">
+        <v>0.720923624835403</v>
+      </c>
+      <c r="G10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2355.67249627675</v>
+        <v>2324.31450595387</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11">
+        <v>-0.08109383702604189</v>
+      </c>
+      <c r="F11">
+        <v>0.7468670357298541</v>
+      </c>
+      <c r="G11" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1450.559639409954</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12">
+        <v>-0.3559116598963104</v>
+      </c>
+      <c r="F12">
+        <v>0.3384583185262704</v>
+      </c>
+      <c r="G12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>522.4835833533895</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13">
+        <v>-0.512491366115701</v>
+      </c>
+      <c r="F13">
+        <v>1.292554037167926</v>
+      </c>
+      <c r="G13" t="s">
+        <v>203</v>
+      </c>
+      <c r="H13" t="s">
+        <v>285</v>
+      </c>
+      <c r="I13" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3920.403039736065</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14">
+        <v>-0.1668155968542435</v>
+      </c>
+      <c r="F14">
+        <v>1.0953162928168</v>
+      </c>
+      <c r="G14" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" t="s">
+        <v>286</v>
+      </c>
+      <c r="I14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1264.788057512609</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15">
+        <v>-0.7798628595942722</v>
+      </c>
+      <c r="F15">
+        <v>1.181572059098102</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s">
+        <v>287</v>
+      </c>
+      <c r="I15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1044.555760050957</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16">
+        <v>-0.3025371638207951</v>
+      </c>
+      <c r="F16">
+        <v>1.180766398121918</v>
+      </c>
+      <c r="G16" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" t="s">
+        <v>288</v>
+      </c>
+      <c r="I16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B17">
+        <v>1778.267951667076</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17">
+        <v>-0.14719672190528</v>
+      </c>
+      <c r="F17">
+        <v>-0.03044756157255302</v>
+      </c>
+      <c r="G17" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1234.846311581225</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18">
+        <v>-0.2603940857751617</v>
+      </c>
+      <c r="F18">
+        <v>0.9362614197465673</v>
+      </c>
+      <c r="G18" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" t="s">
+        <v>289</v>
+      </c>
+      <c r="I18" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2723.239858770804</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19">
+        <v>-0.02212361193038017</v>
+      </c>
+      <c r="F19">
+        <v>-0.07813709378572309</v>
+      </c>
+      <c r="G19" t="s">
+        <v>208</v>
+      </c>
+      <c r="H19" t="s">
+        <v>290</v>
+      </c>
+      <c r="I19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4073.819053269122</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20">
+        <v>-0.06324582347271608</v>
+      </c>
+      <c r="F20">
+        <v>-0.1379141976623863</v>
+      </c>
+      <c r="G20" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1749.76755880311</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21">
+        <v>-0.2829648595486248</v>
+      </c>
+      <c r="F21">
+        <v>0.4963735500303814</v>
+      </c>
+      <c r="G21" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" t="s">
+        <v>292</v>
+      </c>
+      <c r="I21" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1699.430718861656</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22">
+        <v>-0.01818624089276934</v>
+      </c>
+      <c r="F22">
+        <v>-0.3737365333773992</v>
+      </c>
+      <c r="G22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" t="s">
+        <v>293</v>
+      </c>
+      <c r="I22" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>688.2064358061452</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23">
+        <v>0.1454846748843852</v>
+      </c>
+      <c r="F23">
+        <v>0.01270819833804948</v>
+      </c>
+      <c r="G23" t="s">
+        <v>211</v>
+      </c>
+      <c r="H23" t="s">
+        <v>294</v>
+      </c>
+      <c r="I23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>160.0228389960642</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <v>-0.0884651839832951</v>
+      </c>
+      <c r="F24">
+        <v>0.3875018568451742</v>
+      </c>
+      <c r="G24" t="s">
+        <v>212</v>
+      </c>
+      <c r="H24" t="s">
+        <v>295</v>
+      </c>
+      <c r="I24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>411.5996271933534</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25">
+        <v>-0.5322106948521224</v>
+      </c>
+      <c r="F25">
+        <v>0.8729547632407302</v>
+      </c>
+      <c r="G25" t="s">
+        <v>213</v>
+      </c>
+      <c r="H25" t="s">
+        <v>296</v>
+      </c>
+      <c r="I25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1487.480920997006</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26">
+        <v>-0.03494219821599681</v>
+      </c>
+      <c r="F26">
+        <v>0.3829847988107424</v>
+      </c>
+      <c r="G26" t="s">
+        <v>214</v>
+      </c>
+      <c r="H26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>928.3501799899058</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27">
+        <v>-0.5179676118182466</v>
+      </c>
+      <c r="F27">
+        <v>0.872647713572078</v>
+      </c>
+      <c r="G27" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27" t="s">
+        <v>298</v>
+      </c>
+      <c r="I27" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1607.105400751186</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28">
+        <v>-0.3882982805171655</v>
+      </c>
+      <c r="F28">
+        <v>0.5886849720991663</v>
+      </c>
+      <c r="G28" t="s">
+        <v>216</v>
+      </c>
+      <c r="H28" t="s">
+        <v>299</v>
+      </c>
+      <c r="I28" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3012.031274160976</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29">
+        <v>-0.4778321930108587</v>
+      </c>
+      <c r="F29">
+        <v>-0.5390024486713973</v>
+      </c>
+      <c r="G29" t="s">
+        <v>217</v>
+      </c>
+      <c r="H29" t="s">
+        <v>300</v>
+      </c>
+      <c r="I29" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1380.995868340176</v>
+      </c>
+      <c r="C30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30">
+        <v>-0.2920373781544105</v>
+      </c>
+      <c r="F30">
+        <v>1.68273815388338</v>
+      </c>
+      <c r="G30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" t="s">
+        <v>301</v>
+      </c>
+      <c r="I30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1137.231502481146</v>
+      </c>
+      <c r="C31" t="s">
         <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31">
+        <v>-0.3385521853163559</v>
+      </c>
+      <c r="F31">
+        <v>0.2814023206510128</v>
+      </c>
+      <c r="G31" t="s">
+        <v>218</v>
+      </c>
+      <c r="H31" t="s">
+        <v>302</v>
+      </c>
+      <c r="I31" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1696.653981732321</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32">
+        <v>0.08014910888416628</v>
+      </c>
+      <c r="F32">
+        <v>-0.04794774376488364</v>
+      </c>
+      <c r="G32" t="s">
+        <v>219</v>
+      </c>
+      <c r="H32" t="s">
+        <v>303</v>
+      </c>
+      <c r="I32" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1485.872901236659</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33">
+        <v>-0.3880185005042867</v>
+      </c>
+      <c r="F33">
+        <v>1.54686313787941</v>
+      </c>
+      <c r="G33" t="s">
+        <v>220</v>
+      </c>
+      <c r="H33" t="s">
+        <v>304</v>
+      </c>
+      <c r="I33" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1867.645760842215</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34">
+        <v>-0.1262329793879751</v>
+      </c>
+      <c r="F34">
+        <v>0.744208852393089</v>
+      </c>
+      <c r="G34" t="s">
+        <v>221</v>
+      </c>
+      <c r="H34" t="s">
+        <v>305</v>
+      </c>
+      <c r="I34" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1191.428885557111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35">
+        <v>-0.8285405191357483</v>
+      </c>
+      <c r="F35">
+        <v>1.288373000619393</v>
+      </c>
+      <c r="G35" t="s">
+        <v>222</v>
+      </c>
+      <c r="H35" t="s">
+        <v>306</v>
+      </c>
+      <c r="I35" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1663.311943963732</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36">
+        <v>0.2335525582391858</v>
+      </c>
+      <c r="F36">
+        <v>1.314192000043327</v>
+      </c>
+      <c r="G36" t="s">
+        <v>223</v>
+      </c>
+      <c r="H36" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1147.936587894774</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37">
+        <v>-0.5166034290603451</v>
+      </c>
+      <c r="F37">
+        <v>1.297024100240218</v>
+      </c>
+      <c r="G37" t="s">
+        <v>224</v>
+      </c>
+      <c r="H37" t="s">
+        <v>307</v>
+      </c>
+      <c r="I37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2178.11173731568</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38">
+        <v>-0.2185723945660606</v>
+      </c>
+      <c r="F38">
+        <v>0.4422554026973935</v>
+      </c>
+      <c r="G38" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" t="s">
+        <v>308</v>
+      </c>
+      <c r="I38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1401.746487416438</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39">
+        <v>0.2576967778061575</v>
+      </c>
+      <c r="F39">
+        <v>0.1058074787312657</v>
+      </c>
+      <c r="G39" t="s">
+        <v>222</v>
+      </c>
+      <c r="H39" t="s">
+        <v>309</v>
+      </c>
+      <c r="I39" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2573.932384884683</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40">
+        <v>0.01267659668168946</v>
+      </c>
+      <c r="F40">
+        <v>0.1080132224214054</v>
+      </c>
+      <c r="G40" t="s">
+        <v>226</v>
+      </c>
+      <c r="H40" t="s">
+        <v>310</v>
+      </c>
+      <c r="I40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1076.262305736614</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41">
+        <v>-0.2565565332005277</v>
+      </c>
+      <c r="F41">
+        <v>0.1994902792916631</v>
+      </c>
+      <c r="G41" t="s">
+        <v>222</v>
+      </c>
+      <c r="H41" t="s">
+        <v>311</v>
+      </c>
+      <c r="I41" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1407.905891862109</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42">
+        <v>-0.2054951456862228</v>
+      </c>
+      <c r="F42">
+        <v>0.7815949386767733</v>
+      </c>
+      <c r="G42" t="s">
+        <v>227</v>
+      </c>
+      <c r="H42" t="s">
+        <v>312</v>
+      </c>
+      <c r="I42" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>392.3662489713602</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43">
+        <v>-0.9974334586083183</v>
+      </c>
+      <c r="F43">
+        <v>1.076750221480395</v>
+      </c>
+      <c r="G43" t="s">
+        <v>228</v>
+      </c>
+      <c r="H43" t="s">
+        <v>313</v>
+      </c>
+      <c r="I43" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>997.4486779360791</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44">
+        <v>-0.4611529046353994</v>
+      </c>
+      <c r="F44">
+        <v>0.6167834976064062</v>
+      </c>
+      <c r="G44" t="s">
+        <v>229</v>
+      </c>
+      <c r="H44" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>771.0093155202633</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45">
+        <v>-0.5070887315552598</v>
+      </c>
+      <c r="F45">
+        <v>0.1460571104236856</v>
+      </c>
+      <c r="G45" t="s">
+        <v>230</v>
+      </c>
+      <c r="H45" t="s">
+        <v>314</v>
+      </c>
+      <c r="I45" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>923.5410219569683</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46">
+        <v>-0.5291151866091752</v>
+      </c>
+      <c r="F46">
+        <v>0.8510717111099582</v>
+      </c>
+      <c r="G46" t="s">
+        <v>231</v>
+      </c>
+      <c r="H46" t="s">
+        <v>315</v>
+      </c>
+      <c r="I46" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>2442.746120385967</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47">
+        <v>0.2576427572686086</v>
+      </c>
+      <c r="F47">
+        <v>0.08058443085153533</v>
+      </c>
+      <c r="G47" t="s">
+        <v>232</v>
+      </c>
+      <c r="H47" t="s">
+        <v>316</v>
+      </c>
+      <c r="I47" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2587.892286133309</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48">
+        <v>0.1586021451180233</v>
+      </c>
+      <c r="F48">
+        <v>0.5052944831304607</v>
+      </c>
+      <c r="G48" t="s">
+        <v>233</v>
+      </c>
+      <c r="H48" t="s">
+        <v>242</v>
+      </c>
+      <c r="I48" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1390.600778892963</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49">
+        <v>0.6786115904150575</v>
+      </c>
+      <c r="F49">
+        <v>0.7965290397497928</v>
+      </c>
+      <c r="G49" t="s">
+        <v>234</v>
+      </c>
+      <c r="H49" t="s">
+        <v>158</v>
+      </c>
+      <c r="I49" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>2128.684474801521</v>
+      </c>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50">
+        <v>-0.2462714393037972</v>
+      </c>
+      <c r="F50">
+        <v>-0.3285413172550689</v>
+      </c>
+      <c r="G50" t="s">
+        <v>174</v>
+      </c>
+      <c r="H50" t="s">
+        <v>127</v>
+      </c>
+      <c r="I50" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>762.1227092918261</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51">
+        <v>-0.6257433348207193</v>
+      </c>
+      <c r="F51">
+        <v>1.532323661274981</v>
+      </c>
+      <c r="G51" t="s">
+        <v>235</v>
+      </c>
+      <c r="H51" t="s">
+        <v>317</v>
+      </c>
+      <c r="I51" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1520.30142811545</v>
+      </c>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52">
+        <v>0.08315001381180985</v>
+      </c>
+      <c r="F52">
+        <v>0.1690465910879611</v>
+      </c>
+      <c r="G52" t="s">
+        <v>236</v>
+      </c>
+      <c r="H52" t="s">
+        <v>318</v>
+      </c>
+      <c r="I52" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>765.4905153723</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53">
+        <v>-0.3782431420187147</v>
+      </c>
+      <c r="F53">
+        <v>1.004681348450955</v>
+      </c>
+      <c r="G53" t="s">
+        <v>237</v>
+      </c>
+      <c r="H53" t="s">
+        <v>319</v>
+      </c>
+      <c r="I53" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2853.171400143922</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54">
+        <v>0.0002777309121593808</v>
+      </c>
+      <c r="F54">
+        <v>0.2857922024953785</v>
+      </c>
+      <c r="G54" t="s">
+        <v>238</v>
+      </c>
+      <c r="H54" t="s">
+        <v>320</v>
+      </c>
+      <c r="I54" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>676.1269650981276</v>
+      </c>
+      <c r="C55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55">
+        <v>-0.2219020725631767</v>
+      </c>
+      <c r="F55">
+        <v>1.214106929878564</v>
+      </c>
+      <c r="G55" t="s">
+        <v>239</v>
+      </c>
+      <c r="H55" t="s">
+        <v>321</v>
+      </c>
+      <c r="I55" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>991.0684593775686</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56">
+        <v>0.4691692949412404</v>
+      </c>
+      <c r="F56">
+        <v>0.7865382018970601</v>
+      </c>
+      <c r="G56" t="s">
+        <v>240</v>
+      </c>
+      <c r="H56" t="s">
+        <v>322</v>
+      </c>
+      <c r="I56" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1787.914520920915</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57">
+        <v>-0.05080134626605828</v>
+      </c>
+      <c r="F57">
+        <v>0.7668099796764505</v>
+      </c>
+      <c r="G57" t="s">
+        <v>241</v>
+      </c>
+      <c r="H57" t="s">
+        <v>323</v>
+      </c>
+      <c r="I57" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1502.994896360365</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58">
+        <v>0.2354280280079055</v>
+      </c>
+      <c r="F58">
+        <v>0.4353060958633139</v>
+      </c>
+      <c r="G58" t="s">
+        <v>184</v>
+      </c>
+      <c r="H58" t="s">
+        <v>324</v>
+      </c>
+      <c r="I58" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2173.147606686298</v>
+      </c>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59">
+        <v>0.4530223795197575</v>
+      </c>
+      <c r="F59">
+        <v>1.42976411215697</v>
+      </c>
+      <c r="G59" t="s">
+        <v>242</v>
+      </c>
+      <c r="H59" t="s">
+        <v>64</v>
+      </c>
+      <c r="I59" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>2747.777828652528</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" t="s">
+        <v>156</v>
+      </c>
+      <c r="E60">
+        <v>-0.06498325970561442</v>
+      </c>
+      <c r="F60">
+        <v>0.189845541531076</v>
+      </c>
+      <c r="G60" t="s">
+        <v>243</v>
+      </c>
+      <c r="H60" t="s">
+        <v>227</v>
+      </c>
+      <c r="I60" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1264.752717068006</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61">
+        <v>-0.01123441397741852</v>
+      </c>
+      <c r="F61">
+        <v>0.05479762060715165</v>
+      </c>
+      <c r="G61" t="s">
+        <v>244</v>
+      </c>
+      <c r="H61" t="s">
+        <v>325</v>
+      </c>
+      <c r="I61" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1505.715232476112</v>
+      </c>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62">
+        <v>0.147756506919898</v>
+      </c>
+      <c r="F62">
+        <v>0.7981622993708597</v>
+      </c>
+      <c r="G62" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" t="s">
+        <v>326</v>
+      </c>
+      <c r="I62" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>863.4696533959329</v>
+      </c>
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63">
+        <v>-0.5860327677322718</v>
+      </c>
+      <c r="F63">
+        <v>0.6572443869706643</v>
+      </c>
+      <c r="G63" t="s">
+        <v>245</v>
+      </c>
+      <c r="H63" t="s">
+        <v>327</v>
+      </c>
+      <c r="I63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>3177.016370678198</v>
+      </c>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64">
+        <v>-0.01027885379585528</v>
+      </c>
+      <c r="F64">
+        <v>0.6628502376415937</v>
+      </c>
+      <c r="G64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64" t="s">
+        <v>328</v>
+      </c>
+      <c r="I64" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1437.758245025729</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65">
+        <v>-0.3756317997690962</v>
+      </c>
+      <c r="F65">
+        <v>1.334552606810388</v>
+      </c>
+      <c r="G65" t="s">
+        <v>246</v>
+      </c>
+      <c r="H65" t="s">
+        <v>329</v>
+      </c>
+      <c r="I65" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>1213.107412844015</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>160</v>
+      </c>
+      <c r="E66">
+        <v>-0.2450207626029811</v>
+      </c>
+      <c r="F66">
+        <v>0.9710331654410034</v>
+      </c>
+      <c r="G66" t="s">
+        <v>247</v>
+      </c>
+      <c r="H66" t="s">
+        <v>330</v>
+      </c>
+      <c r="I66" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>2081.133323977661</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" t="s">
+        <v>161</v>
+      </c>
+      <c r="E67">
+        <v>0.3439677741197695</v>
+      </c>
+      <c r="F67">
+        <v>0.4578063872760612</v>
+      </c>
+      <c r="G67" t="s">
+        <v>248</v>
+      </c>
+      <c r="H67" t="s">
+        <v>331</v>
+      </c>
+      <c r="I67" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>3048.968742208643</v>
+      </c>
+      <c r="C68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68">
+        <v>0.04668879888610707</v>
+      </c>
+      <c r="F68">
+        <v>0.3228209555082189</v>
+      </c>
+      <c r="G68" t="s">
+        <v>249</v>
+      </c>
+      <c r="H68" t="s">
+        <v>332</v>
+      </c>
+      <c r="I68" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>1211.051558382798</v>
+      </c>
+      <c r="C69" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" t="s">
+        <v>163</v>
+      </c>
+      <c r="E69">
+        <v>-0.03092042311954027</v>
+      </c>
+      <c r="F69">
+        <v>0.9553861754542785</v>
+      </c>
+      <c r="G69" t="s">
+        <v>250</v>
+      </c>
+      <c r="H69" t="s">
+        <v>180</v>
+      </c>
+      <c r="I69" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>1305.208304540196</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70">
+        <v>-0.1703566924075346</v>
+      </c>
+      <c r="F70">
+        <v>0.9365214929966035</v>
+      </c>
+      <c r="G70" t="s">
+        <v>251</v>
+      </c>
+      <c r="H70" t="s">
+        <v>333</v>
+      </c>
+      <c r="I70" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1585.560027236412</v>
+      </c>
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" t="s">
+        <v>165</v>
+      </c>
+      <c r="E71">
+        <v>-0.4246861509113141</v>
+      </c>
+      <c r="F71">
+        <v>0.4551560468638542</v>
+      </c>
+      <c r="G71" t="s">
+        <v>252</v>
+      </c>
+      <c r="H71" t="s">
+        <v>334</v>
+      </c>
+      <c r="I71" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1491.743362693329</v>
+      </c>
+      <c r="C72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72">
+        <v>-0.7589294019098318</v>
+      </c>
+      <c r="F72">
+        <v>1.502310149640029</v>
+      </c>
+      <c r="G72" t="s">
+        <v>253</v>
+      </c>
+      <c r="H72" t="s">
+        <v>335</v>
+      </c>
+      <c r="I72" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>1850.072080618107</v>
+      </c>
+      <c r="C73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" t="s">
+        <v>167</v>
+      </c>
+      <c r="E73">
+        <v>-0.1222137736207876</v>
+      </c>
+      <c r="F73">
+        <v>1.469116649430338</v>
+      </c>
+      <c r="G73" t="s">
+        <v>254</v>
+      </c>
+      <c r="H73" t="s">
+        <v>336</v>
+      </c>
+      <c r="I73" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>2979.092817465315</v>
+      </c>
+      <c r="C74" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" t="s">
+        <v>168</v>
+      </c>
+      <c r="E74">
+        <v>0.5459577025511705</v>
+      </c>
+      <c r="F74">
+        <v>0.6406555616309562</v>
+      </c>
+      <c r="G74" t="s">
+        <v>255</v>
+      </c>
+      <c r="H74" t="s">
+        <v>337</v>
+      </c>
+      <c r="I74" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1590.425275143937</v>
+      </c>
+      <c r="C75" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" t="s">
+        <v>169</v>
+      </c>
+      <c r="E75">
+        <v>-0.186130978163222</v>
+      </c>
+      <c r="F75">
+        <v>1.578727118478744</v>
+      </c>
+      <c r="G75" t="s">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s">
+        <v>338</v>
+      </c>
+      <c r="I75" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1282.196743974306</v>
+      </c>
+      <c r="C76" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" t="s">
+        <v>161</v>
+      </c>
+      <c r="E76">
+        <v>-0.07347509492284267</v>
+      </c>
+      <c r="F76">
+        <v>0.412583818360345</v>
+      </c>
+      <c r="G76" t="s">
+        <v>256</v>
+      </c>
+      <c r="H76" t="s">
+        <v>339</v>
+      </c>
+      <c r="I76" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1672.096933582712</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77">
+        <v>0.0504532403388197</v>
+      </c>
+      <c r="F77">
+        <v>-0.5599545369027594</v>
+      </c>
+      <c r="G77" t="s">
+        <v>141</v>
+      </c>
+      <c r="H77" t="s">
+        <v>340</v>
+      </c>
+      <c r="I77" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1326.150773243527</v>
+      </c>
+      <c r="C78" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78">
+        <v>0.1558412403215398</v>
+      </c>
+      <c r="F78">
+        <v>0.8796211836194292</v>
+      </c>
+      <c r="G78" t="s">
+        <v>257</v>
+      </c>
+      <c r="H78" t="s">
+        <v>341</v>
+      </c>
+      <c r="I78" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2747.870218094074</v>
+      </c>
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" t="s">
+        <v>171</v>
+      </c>
+      <c r="E79">
+        <v>-0.640835598877589</v>
+      </c>
+      <c r="F79">
+        <v>1.23750773358887</v>
+      </c>
+      <c r="G79" t="s">
+        <v>258</v>
+      </c>
+      <c r="H79" t="s">
+        <v>342</v>
+      </c>
+      <c r="I79" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>3330.093617545353</v>
+      </c>
+      <c r="C80" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" t="s">
+        <v>172</v>
+      </c>
+      <c r="E80">
+        <v>-0.07630509747915866</v>
+      </c>
+      <c r="F80">
+        <v>-0.3518322718192572</v>
+      </c>
+      <c r="G80" t="s">
+        <v>259</v>
+      </c>
+      <c r="H80" t="s">
+        <v>343</v>
+      </c>
+      <c r="I80" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1969.898821258098</v>
+      </c>
+      <c r="C81" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" t="s">
+        <v>173</v>
+      </c>
+      <c r="E81">
+        <v>0.4118947578863015</v>
+      </c>
+      <c r="F81">
+        <v>0.6371878234487491</v>
+      </c>
+      <c r="G81" t="s">
+        <v>260</v>
+      </c>
+      <c r="H81" t="s">
+        <v>344</v>
+      </c>
+      <c r="I81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1335.175760544078</v>
+      </c>
+      <c r="C82" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" t="s">
+        <v>174</v>
+      </c>
+      <c r="E82">
+        <v>-0.4302600119579922</v>
+      </c>
+      <c r="F82">
+        <v>0.8686137174819657</v>
+      </c>
+      <c r="G82" t="s">
+        <v>252</v>
+      </c>
+      <c r="H82" t="s">
+        <v>214</v>
+      </c>
+      <c r="I82" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>2041.58703073484</v>
+      </c>
+      <c r="C83" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83">
+        <v>0.5884990068691188</v>
+      </c>
+      <c r="F83">
+        <v>1.170917176876147</v>
+      </c>
+      <c r="G83" t="s">
+        <v>261</v>
+      </c>
+      <c r="H83" t="s">
+        <v>345</v>
+      </c>
+      <c r="I83" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1623.942809333775</v>
+      </c>
+      <c r="C84" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" t="s">
+        <v>140</v>
+      </c>
+      <c r="E84">
+        <v>-0.04331973178161128</v>
+      </c>
+      <c r="F84">
+        <v>0.656449527818701</v>
+      </c>
+      <c r="G84" t="s">
+        <v>262</v>
+      </c>
+      <c r="H84" t="s">
+        <v>346</v>
+      </c>
+      <c r="I84" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>1054.832148524603</v>
+      </c>
+      <c r="C85" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" t="s">
+        <v>164</v>
+      </c>
+      <c r="E85">
+        <v>-0.5675637307970043</v>
+      </c>
+      <c r="F85">
+        <v>1.154673762646631</v>
+      </c>
+      <c r="G85" t="s">
+        <v>263</v>
+      </c>
+      <c r="H85" t="s">
+        <v>347</v>
+      </c>
+      <c r="I85" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>711.1151586449693</v>
+      </c>
+      <c r="C86" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" t="s">
+        <v>176</v>
+      </c>
+      <c r="E86">
+        <v>-0.1291321475590499</v>
+      </c>
+      <c r="F86">
+        <v>1.464672334989252</v>
+      </c>
+      <c r="G86" t="s">
+        <v>264</v>
+      </c>
+      <c r="H86" t="s">
+        <v>348</v>
+      </c>
+      <c r="I86" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1383.271662582977</v>
+      </c>
+      <c r="C87" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" t="s">
+        <v>177</v>
+      </c>
+      <c r="E87">
+        <v>-0.05715077034355418</v>
+      </c>
+      <c r="F87">
+        <v>0.7602974273735956</v>
+      </c>
+      <c r="G87" t="s">
+        <v>265</v>
+      </c>
+      <c r="H87" t="s">
+        <v>349</v>
+      </c>
+      <c r="I87" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>902.3499486477497</v>
+      </c>
+      <c r="C88" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" t="s">
+        <v>178</v>
+      </c>
+      <c r="E88">
+        <v>-0.2604611791291342</v>
+      </c>
+      <c r="F88">
+        <v>-0.4302402072690756</v>
+      </c>
+      <c r="G88" t="s">
+        <v>97</v>
+      </c>
+      <c r="H88" t="s">
+        <v>350</v>
+      </c>
+      <c r="I88" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1316.866927390621</v>
+      </c>
+      <c r="C89" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" t="s">
+        <v>179</v>
+      </c>
+      <c r="E89">
+        <v>-0.257845842152182</v>
+      </c>
+      <c r="F89">
+        <v>0.5809970424606639</v>
+      </c>
+      <c r="G89" t="s">
+        <v>266</v>
+      </c>
+      <c r="H89" t="s">
+        <v>351</v>
+      </c>
+      <c r="I89" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>2252.695339110249</v>
+      </c>
+      <c r="C90" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" t="s">
+        <v>180</v>
+      </c>
+      <c r="E90">
+        <v>0.2344601014338852</v>
+      </c>
+      <c r="F90">
+        <v>-0.0650728216575831</v>
+      </c>
+      <c r="G90" t="s">
+        <v>267</v>
+      </c>
+      <c r="H90" t="s">
+        <v>352</v>
+      </c>
+      <c r="I90" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>1886.958714025076</v>
+      </c>
+      <c r="C91" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91" t="s">
+        <v>181</v>
+      </c>
+      <c r="E91">
+        <v>-0.3547630184670104</v>
+      </c>
+      <c r="F91">
+        <v>-0.5041665519791243</v>
+      </c>
+      <c r="G91" t="s">
+        <v>120</v>
+      </c>
+      <c r="H91" t="s">
+        <v>353</v>
+      </c>
+      <c r="I91" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>762.3966623469013</v>
+      </c>
+      <c r="C92" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" t="s">
+        <v>182</v>
+      </c>
+      <c r="E92">
+        <v>0.01099210052763584</v>
+      </c>
+      <c r="F92">
+        <v>0.2047268397380466</v>
+      </c>
+      <c r="G92" t="s">
+        <v>268</v>
+      </c>
+      <c r="H92" t="s">
+        <v>354</v>
+      </c>
+      <c r="I92" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1720.889854978193</v>
+      </c>
+      <c r="C93" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" t="s">
+        <v>183</v>
+      </c>
+      <c r="E93">
+        <v>-0.07274769053242297</v>
+      </c>
+      <c r="F93">
+        <v>0.2544089781657202</v>
+      </c>
+      <c r="G93" t="s">
+        <v>92</v>
+      </c>
+      <c r="H93" t="s">
+        <v>355</v>
+      </c>
+      <c r="I93" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1547.74644479688</v>
+      </c>
+      <c r="C94" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" t="s">
+        <v>184</v>
+      </c>
+      <c r="E94">
+        <v>-0.1753724217247727</v>
+      </c>
+      <c r="F94">
+        <v>0.1544096531423094</v>
+      </c>
+      <c r="G94" t="s">
+        <v>202</v>
+      </c>
+      <c r="H94" t="s">
+        <v>356</v>
+      </c>
+      <c r="I94" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1319.418275394947</v>
+      </c>
+      <c r="C95" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95" t="s">
+        <v>173</v>
+      </c>
+      <c r="E95">
+        <v>0.2053716026283292</v>
+      </c>
+      <c r="F95">
+        <v>0.8126932565800766</v>
+      </c>
+      <c r="G95" t="s">
+        <v>269</v>
+      </c>
+      <c r="H95" t="s">
+        <v>357</v>
+      </c>
+      <c r="I95" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>1357.203408001205</v>
+      </c>
+      <c r="C96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" t="s">
+        <v>179</v>
+      </c>
+      <c r="E96">
+        <v>-0.03525721143828766</v>
+      </c>
+      <c r="F96">
+        <v>0.635338941704644</v>
+      </c>
+      <c r="G96" t="s">
+        <v>270</v>
+      </c>
+      <c r="H96" t="s">
+        <v>358</v>
+      </c>
+      <c r="I96" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>3024.320777664736</v>
+      </c>
+      <c r="C97" t="s">
+        <v>80</v>
+      </c>
+      <c r="D97" t="s">
+        <v>150</v>
+      </c>
+      <c r="E97">
+        <v>-0.26160647821549</v>
+      </c>
+      <c r="F97">
+        <v>1.808203240581016</v>
+      </c>
+      <c r="G97" t="s">
+        <v>271</v>
+      </c>
+      <c r="H97" t="s">
+        <v>359</v>
+      </c>
+      <c r="I97" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>1679.608848726913</v>
+      </c>
+      <c r="C98" t="s">
+        <v>64</v>
+      </c>
+      <c r="D98" t="s">
+        <v>185</v>
+      </c>
+      <c r="E98">
+        <v>-0.5521149376099276</v>
+      </c>
+      <c r="F98">
+        <v>1.507177625881956</v>
+      </c>
+      <c r="G98" t="s">
+        <v>272</v>
+      </c>
+      <c r="H98" t="s">
+        <v>360</v>
+      </c>
+      <c r="I98" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>1144.355985878822</v>
+      </c>
+      <c r="C99" t="s">
+        <v>101</v>
+      </c>
+      <c r="D99" t="s">
+        <v>186</v>
+      </c>
+      <c r="E99">
+        <v>-1.121297879790128</v>
+      </c>
+      <c r="F99">
+        <v>2.285560734212581</v>
+      </c>
+      <c r="G99" t="s">
+        <v>273</v>
+      </c>
+      <c r="H99" t="s">
+        <v>361</v>
+      </c>
+      <c r="I99" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>3462.498338254891</v>
+      </c>
+      <c r="C100" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E100">
+        <v>-0.3643166573130223</v>
+      </c>
+      <c r="F100">
+        <v>0.1254909168208274</v>
+      </c>
+      <c r="G100" t="s">
+        <v>274</v>
+      </c>
+      <c r="H100" t="s">
+        <v>362</v>
+      </c>
+      <c r="I100" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>1938.246408695202</v>
+      </c>
+      <c r="C101" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101" t="s">
+        <v>188</v>
+      </c>
+      <c r="E101">
+        <v>-0.2046253183466284</v>
+      </c>
+      <c r="F101">
+        <v>1.083271191408263</v>
+      </c>
+      <c r="G101" t="s">
+        <v>275</v>
+      </c>
+      <c r="H101" t="s">
+        <v>363</v>
+      </c>
+      <c r="I101" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" t="s">
+        <v>189</v>
+      </c>
+      <c r="E102" t="s">
+        <v>190</v>
+      </c>
+      <c r="F102" t="s">
+        <v>191</v>
+      </c>
+      <c r="G102" t="s">
+        <v>276</v>
+      </c>
+      <c r="H102" t="s">
+        <v>364</v>
+      </c>
+      <c r="I102" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
